--- a/RQ2_RQ3_data.xlsx
+++ b/RQ2_RQ3_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60312\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60312\Desktop\chatgptstpa\ChatGPT-STPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374F9D63-7981-450A-93EF-3CF452DCEF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0338EF-C90C-41A1-911D-8D614A79913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3860" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{0673AD6B-FB1A-4FCE-9E7E-6B87F5C95ADD}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="3" xr2:uid="{0673AD6B-FB1A-4FCE-9E7E-6B87F5C95ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ2_number" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
   <si>
     <t>9/9</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>5/5</t>
-  </si>
-  <si>
-    <t>5/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,23 +139,14 @@
   </si>
   <si>
     <t>9/11</t>
-  </si>
-  <si>
-    <t>9/11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11/12</t>
-  </si>
-  <si>
-    <t>11/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6/8</t>
-  </si>
-  <si>
-    <t>6/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,23 +172,14 @@
   </si>
   <si>
     <t>7/9</t>
-  </si>
-  <si>
-    <t>7/9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10/12</t>
-  </si>
-  <si>
-    <t>10/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5/6</t>
-  </si>
-  <si>
-    <t>5/6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,25 +193,40 @@
     <t>10/11</t>
   </si>
   <si>
-    <t>5/8</t>
-  </si>
-  <si>
     <t>11/13</t>
   </si>
   <si>
     <t>10/10</t>
   </si>
   <si>
-    <t>11/14</t>
-  </si>
-  <si>
     <t>13/14</t>
   </si>
   <si>
     <t>14/14</t>
   </si>
   <si>
-    <t>23/25</t>
+    <t>12/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -292,20 +286,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +622,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -642,260 +639,260 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="2">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="2">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="2">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="2">
-        <v>6</v>
+      <c r="C27">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="2">
-        <v>10</v>
+      <c r="C29">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="2">
-        <v>5</v>
+      <c r="C30">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>7</v>
       </c>
     </row>
@@ -910,7 +907,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -931,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -942,10 +939,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -953,10 +950,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -964,27 +961,27 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -996,31 +993,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1029,7 +1026,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1038,7 +1035,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -1047,16 +1044,16 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1065,25 +1062,25 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -1092,47 +1089,47 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,42 +1143,42 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1237,260 +1234,441 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B79F7E8-12C8-4324-ADC7-27042B117F9E}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C32" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>8</v>
+      </c>
+      <c r="B37" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B39" s="5">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5">
         <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>13</v>
-      </c>
-      <c r="B30" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1503,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BF11D-F5F8-4B01-803F-7A51CAFE0149}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1516,310 +1694,427 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
+      <c r="A6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>46</v>
+      <c r="A7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
+      <c r="A8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
+      <c r="A9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
+      <c r="A12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
+      <c r="A13" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
+      <c r="A14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>0</v>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>51</v>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>16</v>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
